--- a/biology/Neurosciences/Récepteur_sérotoninergique/Récepteur_sérotoninergique.xlsx
+++ b/biology/Neurosciences/Récepteur_sérotoninergique/Récepteur_sérotoninergique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_s%C3%A9rotoninergique</t>
+          <t>Récepteur_sérotoninergique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des récepteurs sérotoninergiques, aussi appelés récepteurs 5-hydroxytryptamine (abrégés en 5-HT), sont des récepteurs du système nerveux central et périphérique activés par la sérotonine. 
 Les 5-HT ont un rôle dans une variété de comportements, dont l'anxiété, l'appétit, la cognition, l'apprentissage, la mémoire, l'humeur, la thermorégulation, etc. Ils sont ciblés par diverses substances médicamenteuses, dont de nombreux antidépresseurs, antiémétique, neuroleptiques, agents antimigraineux, anorexigène (« coupe-faim »), ou encore par des substances psychoactives (dont le LSD et la MDMA), etc.
-Deux types de récepteurs ont été identifiés à la fin des années 1950, correspondant aux familles des 5HT-1 et 5HT-2[1].
+Deux types de récepteurs ont été identifiés à la fin des années 1950, correspondant aux familles des 5HT-1 et 5HT-2.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_s%C3%A9rotoninergique</t>
+          <t>Récepteur_sérotoninergique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2019, grâce aux résultats du microscope électronique Titan Krios de l'ESRF, les chercheurs observent pour la première fois à l’échelle atomique les mouvements du récepteur 5-HT3 de la sérotonine, impliqué dans la conception de médicaments anti-nauséeux utilisés lors d'une chimiothérapie ou d'une radiothérapie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2019, grâce aux résultats du microscope électronique Titan Krios de l'ESRF, les chercheurs observent pour la première fois à l’échelle atomique les mouvements du récepteur 5-HT3 de la sérotonine, impliqué dans la conception de médicaments anti-nauséeux utilisés lors d'une chimiothérapie ou d'une radiothérapie.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_s%C3%A9rotoninergique</t>
+          <t>Récepteur_sérotoninergique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sous-types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ces catégories générales des récepteurs de la sérotonine, un certain nombre de types spécifiques ont été caractérisés.
 </t>
